--- a/biology/Neurosciences/Huda_Zoghbi/Huda_Zoghbi.xlsx
+++ b/biology/Neurosciences/Huda_Zoghbi/Huda_Zoghbi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Huda Yahya Zoghbi (en arabe : هدى الزغبي (Hudā az-Zughbī)), née à Beyrouth le 20 juin 1954, est une neuroscientifique et médecin américaine d'origine libanaise[1],[2]. Elle est professeure et directrice de recherches au Baylor College of Medicine et à l'Institut Médical Howard Hughes[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Huda Yahya Zoghbi (en arabe : هدى الزغبي (Hudā az-Zughbī)), née à Beyrouth le 20 juin 1954, est une neuroscientifique et médecin américaine d'origine libanaise,. Elle est professeure et directrice de recherches au Baylor College of Medicine et à l'Institut Médical Howard Hughes.
 Elle est membre de l'Académie nationale des sciences depuis 2004.
 Ses travaux ont permis de comprendre les mécanismes du syndrome de Rett et des ataxies spinocérébelleuses.
 </t>
@@ -513,20 +525,22 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2004 : Prix de plasticité neuronale (France)
-2007 : Prix Perl-UNC pour le papier Discovery of the Genetic Basis of Rett Syndrome[4]
-2009 : Prix Vilcek en science biomédical[5]
-2011 : Prix Gruber en Neuroscience [6]
+2007 : Prix Perl-UNC pour le papier Discovery of the Genetic Basis of Rett Syndrome
+2009 : Prix Vilcek en science biomédical
+2011 : Prix Gruber en Neuroscience 
 2013 : Prix Dickson en médecine
 2013 : Prix Pearl Meister Greengard
 2014 : March of Dimes Prize in Developmental Biology
-2016 : Prix Shaw[7].
+2016 : Prix Shaw.
 2016 : Médaille Jessie Stevenson Kovalenko
 2017 : Breakthrough Prize in Life Sciences
 2018 : membre de l'Académie américaine des arts et des sciences
-2020 : Prix Brain de la Fondation Lundbeck[8]
+2020 : Prix Brain de la Fondation Lundbeck
 2022 : Prix Kavli en Neurosciences, conjointement avec Jean-Louis Mandel, Christopher T. Walsh (en) et Harry T. Orr</t>
         </is>
       </c>
@@ -555,10 +569,12 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2008 : Temple de la renommée des femmes du Texas
-2017 : Doctorat honoris causa de l'Université Harvard[9]</t>
+2017 : Doctorat honoris causa de l'Université Harvard</t>
         </is>
       </c>
     </row>
